--- a/owid-covid-data.xlsx
+++ b/owid-covid-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorm\Desktop\FGV\4º Semestre\03 - Modelagem de Fenômenos Biológicos\MM4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B0F7E5-54A1-4481-980B-FC691DD6A01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE640D3-5069-4322-84E1-3A14C4080DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1432,9 +1432,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F174" sqref="F174"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/owid-covid-data.xlsx
+++ b/owid-covid-data.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorm\Desktop\FGV\4º Semestre\03 - Modelagem de Fenômenos Biológicos\Trabalho\MM4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D63D9-B30D-4CE7-A784-79C7678FD6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28FE8F-B9DC-4AE5-9593-58926812D678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="372">
   <si>
     <t>iso_code</t>
   </si>
@@ -1123,6 +1133,9 @@
     <t>2020-12-04</t>
   </si>
   <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
     <t>Europe</t>
   </si>
   <si>
@@ -1496,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX318"/>
+  <dimension ref="A1:AX319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="H319" sqref="H319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,13 +1671,13 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1729,13 +1742,13 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -1800,13 +1813,13 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -1871,13 +1884,13 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -1942,13 +1955,13 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -2013,13 +2026,13 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -2096,13 +2109,13 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -2179,13 +2192,13 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -2262,13 +2275,13 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
@@ -2351,13 +2364,13 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -2440,13 +2453,13 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
@@ -2529,13 +2542,13 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -2618,13 +2631,13 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
         <v>62</v>
@@ -2707,13 +2720,13 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
@@ -2796,13 +2809,13 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
@@ -2885,13 +2898,13 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
@@ -2974,13 +2987,13 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -3063,13 +3076,13 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
         <v>67</v>
@@ -3152,13 +3165,13 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
@@ -3241,13 +3254,13 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D21" t="s">
         <v>69</v>
@@ -3330,13 +3343,13 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -3419,13 +3432,13 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D23" t="s">
         <v>71</v>
@@ -3508,13 +3521,13 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
@@ -3597,13 +3610,13 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -3686,13 +3699,13 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
@@ -3775,13 +3788,13 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
@@ -3864,13 +3877,13 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D28" t="s">
         <v>76</v>
@@ -3953,13 +3966,13 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
@@ -4042,13 +4055,13 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D30" t="s">
         <v>78</v>
@@ -4131,13 +4144,13 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D31" t="s">
         <v>79</v>
@@ -4226,13 +4239,13 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -4321,13 +4334,13 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C33" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -4416,13 +4429,13 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D34" t="s">
         <v>82</v>
@@ -4485,7 +4498,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="AH34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI34">
         <v>69.91</v>
@@ -4535,13 +4548,13 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D35" t="s">
         <v>83</v>
@@ -4610,7 +4623,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="AH35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI35">
         <v>69.91</v>
@@ -4660,13 +4673,13 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D36" t="s">
         <v>84</v>
@@ -4735,7 +4748,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="AH36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI36">
         <v>69.91</v>
@@ -4785,13 +4798,13 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
         <v>85</v>
@@ -4860,7 +4873,7 @@
         <v>0.04</v>
       </c>
       <c r="AH37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI37">
         <v>69.91</v>
@@ -4910,13 +4923,13 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D38" t="s">
         <v>86</v>
@@ -4985,7 +4998,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="AH38" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI38">
         <v>69.91</v>
@@ -5035,13 +5048,13 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -5110,7 +5123,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="AH39" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI39">
         <v>69.91</v>
@@ -5160,13 +5173,13 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D40" t="s">
         <v>88</v>
@@ -5235,7 +5248,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="AH40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI40">
         <v>69.91</v>
@@ -5285,13 +5298,13 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D41" t="s">
         <v>89</v>
@@ -5372,7 +5385,7 @@
         <v>10.5</v>
       </c>
       <c r="AH41" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI41">
         <v>69.91</v>
@@ -5422,13 +5435,13 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D42" t="s">
         <v>90</v>
@@ -5509,7 +5522,7 @@
         <v>7.9</v>
       </c>
       <c r="AH42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI42">
         <v>69.91</v>
@@ -5559,13 +5572,13 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D43" t="s">
         <v>91</v>
@@ -5646,7 +5659,7 @@
         <v>7.7</v>
       </c>
       <c r="AH43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI43">
         <v>74.540000000000006</v>
@@ -5696,13 +5709,13 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D44" t="s">
         <v>92</v>
@@ -5783,7 +5796,7 @@
         <v>6.4</v>
       </c>
       <c r="AH44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI44">
         <v>74.540000000000006</v>
@@ -5833,13 +5846,13 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C45" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D45" t="s">
         <v>93</v>
@@ -5920,7 +5933,7 @@
         <v>5.5</v>
       </c>
       <c r="AH45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI45">
         <v>74.540000000000006</v>
@@ -5970,13 +5983,13 @@
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D46" t="s">
         <v>94</v>
@@ -6057,7 +6070,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AH46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI46">
         <v>74.540000000000006</v>
@@ -6107,13 +6120,13 @@
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C47" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D47" t="s">
         <v>95</v>
@@ -6194,7 +6207,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AH47" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI47">
         <v>74.540000000000006</v>
@@ -6244,13 +6257,13 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D48" t="s">
         <v>96</v>
@@ -6331,7 +6344,7 @@
         <v>4.3</v>
       </c>
       <c r="AH48" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI48">
         <v>74.540000000000006</v>
@@ -6381,13 +6394,13 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C49" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D49" t="s">
         <v>97</v>
@@ -6468,7 +6481,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AH49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI49">
         <v>82.41</v>
@@ -6518,13 +6531,13 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C50" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D50" t="s">
         <v>98</v>
@@ -6605,7 +6618,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AH50" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI50">
         <v>85.19</v>
@@ -6655,13 +6668,13 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C51" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D51" t="s">
         <v>99</v>
@@ -6742,7 +6755,7 @@
         <v>4.8</v>
       </c>
       <c r="AH51" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI51">
         <v>85.19</v>
@@ -6792,13 +6805,13 @@
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C52" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D52" t="s">
         <v>100</v>
@@ -6879,7 +6892,7 @@
         <v>4.7</v>
       </c>
       <c r="AH52" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI52">
         <v>85.19</v>
@@ -6929,13 +6942,13 @@
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C53" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D53" t="s">
         <v>101</v>
@@ -7016,7 +7029,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AH53" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI53">
         <v>85.19</v>
@@ -7066,13 +7079,13 @@
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D54" t="s">
         <v>102</v>
@@ -7153,7 +7166,7 @@
         <v>4.3</v>
       </c>
       <c r="AH54" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI54">
         <v>85.19</v>
@@ -7203,13 +7216,13 @@
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C55" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D55" t="s">
         <v>103</v>
@@ -7290,7 +7303,7 @@
         <v>4.5</v>
       </c>
       <c r="AH55" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI55">
         <v>85.19</v>
@@ -7340,13 +7353,13 @@
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D56" t="s">
         <v>104</v>
@@ -7427,7 +7440,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AH56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI56">
         <v>85.19</v>
@@ -7477,13 +7490,13 @@
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C57" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D57" t="s">
         <v>105</v>
@@ -7564,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="AH57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI57">
         <v>85.19</v>
@@ -7614,13 +7627,13 @@
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B58" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C58" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D58" t="s">
         <v>106</v>
@@ -7701,7 +7714,7 @@
         <v>3.7</v>
       </c>
       <c r="AH58" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI58">
         <v>85.19</v>
@@ -7751,13 +7764,13 @@
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B59" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D59" t="s">
         <v>107</v>
@@ -7838,7 +7851,7 @@
         <v>3.7</v>
       </c>
       <c r="AH59" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI59">
         <v>91.67</v>
@@ -7888,13 +7901,13 @@
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D60" t="s">
         <v>108</v>
@@ -7975,7 +7988,7 @@
         <v>3.8</v>
       </c>
       <c r="AH60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI60">
         <v>91.67</v>
@@ -8025,13 +8038,13 @@
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C61" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D61" t="s">
         <v>109</v>
@@ -8112,7 +8125,7 @@
         <v>3.9</v>
       </c>
       <c r="AH61" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI61">
         <v>91.67</v>
@@ -8162,13 +8175,13 @@
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C62" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D62" t="s">
         <v>110</v>
@@ -8249,7 +8262,7 @@
         <v>3.8</v>
       </c>
       <c r="AH62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI62">
         <v>91.67</v>
@@ -8299,13 +8312,13 @@
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B63" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C63" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D63" t="s">
         <v>111</v>
@@ -8386,7 +8399,7 @@
         <v>3.9</v>
       </c>
       <c r="AH63" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI63">
         <v>91.67</v>
@@ -8436,13 +8449,13 @@
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B64" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C64" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D64" t="s">
         <v>112</v>
@@ -8523,7 +8536,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AH64" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI64">
         <v>91.67</v>
@@ -8573,13 +8586,13 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C65" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D65" t="s">
         <v>113</v>
@@ -8660,7 +8673,7 @@
         <v>4.5</v>
       </c>
       <c r="AH65" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI65">
         <v>91.67</v>
@@ -8710,13 +8723,13 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D66" t="s">
         <v>114</v>
@@ -8797,7 +8810,7 @@
         <v>4.7</v>
       </c>
       <c r="AH66" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI66">
         <v>91.67</v>
@@ -8847,13 +8860,13 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C67" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D67" t="s">
         <v>115</v>
@@ -8934,7 +8947,7 @@
         <v>5</v>
       </c>
       <c r="AH67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI67">
         <v>91.67</v>
@@ -8984,13 +8997,13 @@
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C68" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D68" t="s">
         <v>116</v>
@@ -9071,7 +9084,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AH68" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI68">
         <v>91.67</v>
@@ -9121,13 +9134,13 @@
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D69" t="s">
         <v>117</v>
@@ -9208,7 +9221,7 @@
         <v>5.3</v>
       </c>
       <c r="AH69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI69">
         <v>91.67</v>
@@ -9258,13 +9271,13 @@
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B70" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D70" t="s">
         <v>118</v>
@@ -9345,7 +9358,7 @@
         <v>5.7</v>
       </c>
       <c r="AH70" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI70">
         <v>91.67</v>
@@ -9395,13 +9408,13 @@
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B71" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D71" t="s">
         <v>119</v>
@@ -9482,7 +9495,7 @@
         <v>6</v>
       </c>
       <c r="AH71" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI71">
         <v>91.67</v>
@@ -9532,13 +9545,13 @@
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C72" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D72" t="s">
         <v>120</v>
@@ -9619,7 +9632,7 @@
         <v>6.4</v>
       </c>
       <c r="AH72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI72">
         <v>91.67</v>
@@ -9669,13 +9682,13 @@
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B73" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -9756,7 +9769,7 @@
         <v>6.8</v>
       </c>
       <c r="AH73" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI73">
         <v>91.67</v>
@@ -9806,13 +9819,13 @@
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -9893,7 +9906,7 @@
         <v>7.1</v>
       </c>
       <c r="AH74" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI74">
         <v>91.67</v>
@@ -9943,13 +9956,13 @@
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C75" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D75" t="s">
         <v>123</v>
@@ -10030,7 +10043,7 @@
         <v>7.6</v>
       </c>
       <c r="AH75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI75">
         <v>91.67</v>
@@ -10080,13 +10093,13 @@
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B76" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C76" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D76" t="s">
         <v>124</v>
@@ -10167,7 +10180,7 @@
         <v>7.9</v>
       </c>
       <c r="AH76" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI76">
         <v>91.67</v>
@@ -10217,13 +10230,13 @@
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B77" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C77" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D77" t="s">
         <v>125</v>
@@ -10304,7 +10317,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AH77" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI77">
         <v>91.67</v>
@@ -10354,13 +10367,13 @@
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D78" t="s">
         <v>126</v>
@@ -10441,7 +10454,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AH78" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI78">
         <v>91.67</v>
@@ -10491,13 +10504,13 @@
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C79" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D79" t="s">
         <v>127</v>
@@ -10578,7 +10591,7 @@
         <v>9.6</v>
       </c>
       <c r="AH79" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI79">
         <v>91.67</v>
@@ -10628,13 +10641,13 @@
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C80" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D80" t="s">
         <v>128</v>
@@ -10715,7 +10728,7 @@
         <v>10.3</v>
       </c>
       <c r="AH80" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI80">
         <v>87.96</v>
@@ -10765,13 +10778,13 @@
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D81" t="s">
         <v>129</v>
@@ -10852,7 +10865,7 @@
         <v>11.1</v>
       </c>
       <c r="AH81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI81">
         <v>87.96</v>
@@ -10902,13 +10915,13 @@
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C82" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D82" t="s">
         <v>130</v>
@@ -10989,7 +11002,7 @@
         <v>11.6</v>
       </c>
       <c r="AH82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI82">
         <v>93.52</v>
@@ -11039,13 +11052,13 @@
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C83" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D83" t="s">
         <v>131</v>
@@ -11126,7 +11139,7 @@
         <v>12.1</v>
       </c>
       <c r="AH83" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI83">
         <v>93.52</v>
@@ -11176,13 +11189,13 @@
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C84" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D84" t="s">
         <v>132</v>
@@ -11263,7 +11276,7 @@
         <v>11.8</v>
       </c>
       <c r="AH84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI84">
         <v>93.52</v>
@@ -11313,13 +11326,13 @@
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C85" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D85" t="s">
         <v>133</v>
@@ -11400,7 +11413,7 @@
         <v>12.1</v>
       </c>
       <c r="AH85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI85">
         <v>93.52</v>
@@ -11450,13 +11463,13 @@
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B86" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C86" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D86" t="s">
         <v>134</v>
@@ -11537,7 +11550,7 @@
         <v>12.8</v>
       </c>
       <c r="AH86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI86">
         <v>93.52</v>
@@ -11587,13 +11600,13 @@
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B87" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C87" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D87" t="s">
         <v>135</v>
@@ -11674,7 +11687,7 @@
         <v>13.6</v>
       </c>
       <c r="AH87" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI87">
         <v>93.52</v>
@@ -11724,13 +11737,13 @@
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C88" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D88" t="s">
         <v>136</v>
@@ -11811,7 +11824,7 @@
         <v>14.5</v>
       </c>
       <c r="AH88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI88">
         <v>93.52</v>
@@ -11861,13 +11874,13 @@
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D89" t="s">
         <v>137</v>
@@ -11948,7 +11961,7 @@
         <v>15.3</v>
       </c>
       <c r="AH89" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI89">
         <v>93.52</v>
@@ -11998,13 +12011,13 @@
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C90" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D90" t="s">
         <v>138</v>
@@ -12085,7 +12098,7 @@
         <v>16.2</v>
       </c>
       <c r="AH90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI90">
         <v>93.52</v>
@@ -12135,13 +12148,13 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B91" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D91" t="s">
         <v>139</v>
@@ -12222,7 +12235,7 @@
         <v>17.5</v>
       </c>
       <c r="AH91" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI91">
         <v>93.52</v>
@@ -12272,13 +12285,13 @@
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D92" t="s">
         <v>140</v>
@@ -12359,7 +12372,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="AH92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI92">
         <v>93.52</v>
@@ -12409,13 +12422,13 @@
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D93" t="s">
         <v>141</v>
@@ -12496,7 +12509,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="AH93" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI93">
         <v>93.52</v>
@@ -12546,13 +12559,13 @@
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D94" t="s">
         <v>142</v>
@@ -12633,7 +12646,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AH94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI94">
         <v>93.52</v>
@@ -12683,13 +12696,13 @@
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D95" t="s">
         <v>143</v>
@@ -12770,7 +12783,7 @@
         <v>20.7</v>
       </c>
       <c r="AH95" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI95">
         <v>93.52</v>
@@ -12820,13 +12833,13 @@
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B96" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D96" t="s">
         <v>144</v>
@@ -12907,7 +12920,7 @@
         <v>21.4</v>
       </c>
       <c r="AH96" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI96">
         <v>93.52</v>
@@ -12957,13 +12970,13 @@
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B97" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C97" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D97" t="s">
         <v>145</v>
@@ -13044,7 +13057,7 @@
         <v>21.5</v>
       </c>
       <c r="AH97" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI97">
         <v>93.52</v>
@@ -13094,13 +13107,13 @@
     </row>
     <row r="98" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C98" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D98" t="s">
         <v>146</v>
@@ -13181,7 +13194,7 @@
         <v>22.6</v>
       </c>
       <c r="AH98" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI98">
         <v>93.52</v>
@@ -13231,13 +13244,13 @@
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B99" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C99" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D99" t="s">
         <v>147</v>
@@ -13318,7 +13331,7 @@
         <v>24.4</v>
       </c>
       <c r="AH99" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI99">
         <v>93.52</v>
@@ -13368,13 +13381,13 @@
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B100" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C100" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D100" t="s">
         <v>148</v>
@@ -13455,7 +13468,7 @@
         <v>25.8</v>
       </c>
       <c r="AH100" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI100">
         <v>93.52</v>
@@ -13505,13 +13518,13 @@
     </row>
     <row r="101" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C101" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D101" t="s">
         <v>149</v>
@@ -13592,7 +13605,7 @@
         <v>28.5</v>
       </c>
       <c r="AH101" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI101">
         <v>93.52</v>
@@ -13642,13 +13655,13 @@
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C102" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D102" t="s">
         <v>150</v>
@@ -13729,7 +13742,7 @@
         <v>28.7</v>
       </c>
       <c r="AH102" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI102">
         <v>93.52</v>
@@ -13779,13 +13792,13 @@
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B103" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D103" t="s">
         <v>151</v>
@@ -13866,7 +13879,7 @@
         <v>30.4</v>
       </c>
       <c r="AH103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI103">
         <v>93.52</v>
@@ -13916,13 +13929,13 @@
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C104" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s">
         <v>152</v>
@@ -14003,7 +14016,7 @@
         <v>32.1</v>
       </c>
       <c r="AH104" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI104">
         <v>62.96</v>
@@ -14053,13 +14066,13 @@
     </row>
     <row r="105" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B105" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C105" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D105" t="s">
         <v>153</v>
@@ -14140,7 +14153,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="AH105" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI105">
         <v>62.96</v>
@@ -14190,13 +14203,13 @@
     </row>
     <row r="106" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C106" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s">
         <v>154</v>
@@ -14277,7 +14290,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="AH106" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI106">
         <v>62.96</v>
@@ -14327,13 +14340,13 @@
     </row>
     <row r="107" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B107" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C107" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D107" t="s">
         <v>155</v>
@@ -14414,7 +14427,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="AH107" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI107">
         <v>62.96</v>
@@ -14464,13 +14477,13 @@
     </row>
     <row r="108" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B108" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C108" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D108" t="s">
         <v>156</v>
@@ -14551,7 +14564,7 @@
         <v>40.1</v>
       </c>
       <c r="AH108" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI108">
         <v>62.96</v>
@@ -14601,13 +14614,13 @@
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B109" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C109" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D109" t="s">
         <v>157</v>
@@ -14688,7 +14701,7 @@
         <v>45.3</v>
       </c>
       <c r="AH109" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI109">
         <v>62.96</v>
@@ -14738,13 +14751,13 @@
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B110" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C110" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D110" t="s">
         <v>158</v>
@@ -14825,7 +14838,7 @@
         <v>49.3</v>
       </c>
       <c r="AH110" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI110">
         <v>62.96</v>
@@ -14875,13 +14888,13 @@
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B111" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D111" t="s">
         <v>159</v>
@@ -14962,7 +14975,7 @@
         <v>52.7</v>
       </c>
       <c r="AH111" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI111">
         <v>62.96</v>
@@ -15012,13 +15025,13 @@
     </row>
     <row r="112" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B112" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C112" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D112" t="s">
         <v>160</v>
@@ -15099,7 +15112,7 @@
         <v>52.1</v>
       </c>
       <c r="AH112" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI112">
         <v>62.96</v>
@@ -15149,13 +15162,13 @@
     </row>
     <row r="113" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B113" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C113" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D113" t="s">
         <v>161</v>
@@ -15236,7 +15249,7 @@
         <v>55.5</v>
       </c>
       <c r="AH113" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI113">
         <v>62.96</v>
@@ -15286,13 +15299,13 @@
     </row>
     <row r="114" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B114" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C114" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D114" t="s">
         <v>162</v>
@@ -15373,7 +15386,7 @@
         <v>58.9</v>
       </c>
       <c r="AH114" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI114">
         <v>62.96</v>
@@ -15423,13 +15436,13 @@
     </row>
     <row r="115" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B115" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C115" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D115" t="s">
         <v>163</v>
@@ -15510,7 +15523,7 @@
         <v>64.3</v>
       </c>
       <c r="AH115" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI115">
         <v>62.96</v>
@@ -15560,13 +15573,13 @@
     </row>
     <row r="116" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B116" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C116" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D116" t="s">
         <v>164</v>
@@ -15647,7 +15660,7 @@
         <v>66.3</v>
       </c>
       <c r="AH116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI116">
         <v>66.67</v>
@@ -15697,13 +15710,13 @@
     </row>
     <row r="117" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B117" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C117" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D117" t="s">
         <v>165</v>
@@ -15784,7 +15797,7 @@
         <v>69</v>
       </c>
       <c r="AH117" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI117">
         <v>66.67</v>
@@ -15834,13 +15847,13 @@
     </row>
     <row r="118" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B118" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D118" t="s">
         <v>166</v>
@@ -15921,7 +15934,7 @@
         <v>71.599999999999994</v>
       </c>
       <c r="AH118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI118">
         <v>63.89</v>
@@ -15971,13 +15984,13 @@
     </row>
     <row r="119" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B119" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C119" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D119" t="s">
         <v>167</v>
@@ -16058,7 +16071,7 @@
         <v>78.599999999999994</v>
       </c>
       <c r="AH119" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI119">
         <v>63.89</v>
@@ -16108,13 +16121,13 @@
     </row>
     <row r="120" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B120" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D120" t="s">
         <v>168</v>
@@ -16195,7 +16208,7 @@
         <v>82.9</v>
       </c>
       <c r="AH120" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI120">
         <v>63.89</v>
@@ -16245,13 +16258,13 @@
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C121" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D121" t="s">
         <v>169</v>
@@ -16332,7 +16345,7 @@
         <v>88.8</v>
       </c>
       <c r="AH121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI121">
         <v>63.89</v>
@@ -16382,13 +16395,13 @@
     </row>
     <row r="122" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B122" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C122" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D122" t="s">
         <v>170</v>
@@ -16469,7 +16482,7 @@
         <v>92.8</v>
       </c>
       <c r="AH122" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI122">
         <v>63.89</v>
@@ -16519,13 +16532,13 @@
     </row>
     <row r="123" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B123" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C123" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D123" t="s">
         <v>171</v>
@@ -16606,7 +16619,7 @@
         <v>97.7</v>
       </c>
       <c r="AH123" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI123">
         <v>63.89</v>
@@ -16656,13 +16669,13 @@
     </row>
     <row r="124" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B124" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C124" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D124" t="s">
         <v>172</v>
@@ -16743,7 +16756,7 @@
         <v>99.9</v>
       </c>
       <c r="AH124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI124">
         <v>63.89</v>
@@ -16793,13 +16806,13 @@
     </row>
     <row r="125" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C125" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D125" t="s">
         <v>173</v>
@@ -16880,7 +16893,7 @@
         <v>103.2</v>
       </c>
       <c r="AH125" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI125">
         <v>63.89</v>
@@ -16930,13 +16943,13 @@
     </row>
     <row r="126" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B126" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C126" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D126" t="s">
         <v>174</v>
@@ -17017,7 +17030,7 @@
         <v>112.9</v>
       </c>
       <c r="AH126" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI126">
         <v>63.89</v>
@@ -17067,13 +17080,13 @@
     </row>
     <row r="127" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D127" t="s">
         <v>175</v>
@@ -17154,7 +17167,7 @@
         <v>115.4</v>
       </c>
       <c r="AH127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI127">
         <v>63.89</v>
@@ -17204,13 +17217,13 @@
     </row>
     <row r="128" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C128" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D128" t="s">
         <v>176</v>
@@ -17291,7 +17304,7 @@
         <v>118</v>
       </c>
       <c r="AH128" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI128">
         <v>63.89</v>
@@ -17341,13 +17354,13 @@
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B129" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D129" t="s">
         <v>177</v>
@@ -17428,7 +17441,7 @@
         <v>121.6</v>
       </c>
       <c r="AH129" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI129">
         <v>63.89</v>
@@ -17478,13 +17491,13 @@
     </row>
     <row r="130" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B130" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C130" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D130" t="s">
         <v>178</v>
@@ -17565,7 +17578,7 @@
         <v>129.9</v>
       </c>
       <c r="AH130" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI130">
         <v>63.89</v>
@@ -17615,13 +17628,13 @@
     </row>
     <row r="131" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B131" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C131" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D131" t="s">
         <v>179</v>
@@ -17702,7 +17715,7 @@
         <v>137.5</v>
       </c>
       <c r="AH131" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI131">
         <v>63.89</v>
@@ -17752,13 +17765,13 @@
     </row>
     <row r="132" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C132" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D132" t="s">
         <v>180</v>
@@ -17839,7 +17852,7 @@
         <v>140.80000000000001</v>
       </c>
       <c r="AH132" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI132">
         <v>63.89</v>
@@ -17889,13 +17902,13 @@
     </row>
     <row r="133" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C133" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D133" t="s">
         <v>181</v>
@@ -17976,7 +17989,7 @@
         <v>142.69999999999999</v>
       </c>
       <c r="AH133" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI133">
         <v>52.78</v>
@@ -18026,13 +18039,13 @@
     </row>
     <row r="134" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B134" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C134" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D134" t="s">
         <v>182</v>
@@ -18113,7 +18126,7 @@
         <v>145.5</v>
       </c>
       <c r="AH134" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI134">
         <v>44.44</v>
@@ -18163,13 +18176,13 @@
     </row>
     <row r="135" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B135" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C135" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D135" t="s">
         <v>183</v>
@@ -18250,7 +18263,7 @@
         <v>160.6</v>
       </c>
       <c r="AH135" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI135">
         <v>44.44</v>
@@ -18300,13 +18313,13 @@
     </row>
     <row r="136" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B136" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C136" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D136" t="s">
         <v>184</v>
@@ -18387,7 +18400,7 @@
         <v>157.4</v>
       </c>
       <c r="AH136" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI136">
         <v>44.44</v>
@@ -18437,13 +18450,13 @@
     </row>
     <row r="137" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B137" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C137" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D137" t="s">
         <v>185</v>
@@ -18524,7 +18537,7 @@
         <v>169.6</v>
       </c>
       <c r="AH137" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI137">
         <v>44.44</v>
@@ -18574,13 +18587,13 @@
     </row>
     <row r="138" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B138" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D138" t="s">
         <v>186</v>
@@ -18661,7 +18674,7 @@
         <v>178.8</v>
       </c>
       <c r="AH138" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI138">
         <v>44.44</v>
@@ -18711,13 +18724,13 @@
     </row>
     <row r="139" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B139" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C139" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D139" t="s">
         <v>187</v>
@@ -18798,7 +18811,7 @@
         <v>169.9</v>
       </c>
       <c r="AH139" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI139">
         <v>44.44</v>
@@ -18848,13 +18861,13 @@
     </row>
     <row r="140" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B140" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C140" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D140" t="s">
         <v>188</v>
@@ -18935,7 +18948,7 @@
         <v>174.2</v>
       </c>
       <c r="AH140" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI140">
         <v>44.44</v>
@@ -18985,13 +18998,13 @@
     </row>
     <row r="141" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C141" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D141" t="s">
         <v>189</v>
@@ -19072,7 +19085,7 @@
         <v>198.1</v>
       </c>
       <c r="AH141" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI141">
         <v>44.44</v>
@@ -19122,13 +19135,13 @@
     </row>
     <row r="142" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B142" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C142" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D142" t="s">
         <v>190</v>
@@ -19209,7 +19222,7 @@
         <v>185.2</v>
       </c>
       <c r="AH142" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI142">
         <v>50</v>
@@ -19259,13 +19272,13 @@
     </row>
     <row r="143" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B143" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C143" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D143" t="s">
         <v>191</v>
@@ -19346,7 +19359,7 @@
         <v>225.4</v>
       </c>
       <c r="AH143" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI143">
         <v>50</v>
@@ -19396,13 +19409,13 @@
     </row>
     <row r="144" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B144" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C144" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D144" t="s">
         <v>192</v>
@@ -19483,7 +19496,7 @@
         <v>203.9</v>
       </c>
       <c r="AH144" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI144">
         <v>50</v>
@@ -19533,13 +19546,13 @@
     </row>
     <row r="145" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B145" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C145" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D145" t="s">
         <v>193</v>
@@ -19620,7 +19633,7 @@
         <v>193</v>
       </c>
       <c r="AH145" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI145">
         <v>50</v>
@@ -19670,13 +19683,13 @@
     </row>
     <row r="146" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C146" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D146" t="s">
         <v>194</v>
@@ -19757,7 +19770,7 @@
         <v>191.4</v>
       </c>
       <c r="AH146" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI146">
         <v>55.56</v>
@@ -19807,13 +19820,13 @@
     </row>
     <row r="147" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B147" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C147" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D147" t="s">
         <v>195</v>
@@ -19894,7 +19907,7 @@
         <v>194.5</v>
       </c>
       <c r="AH147" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI147">
         <v>55.56</v>
@@ -19944,13 +19957,13 @@
     </row>
     <row r="148" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B148" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C148" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D148" t="s">
         <v>196</v>
@@ -20031,7 +20044,7 @@
         <v>189.9</v>
       </c>
       <c r="AH148" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI148">
         <v>55.56</v>
@@ -20081,13 +20094,13 @@
     </row>
     <row r="149" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B149" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C149" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D149" t="s">
         <v>197</v>
@@ -20168,7 +20181,7 @@
         <v>192.2</v>
       </c>
       <c r="AH149" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI149">
         <v>55.56</v>
@@ -20218,13 +20231,13 @@
     </row>
     <row r="150" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B150" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C150" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D150" t="s">
         <v>198</v>
@@ -20305,7 +20318,7 @@
         <v>219.6</v>
       </c>
       <c r="AH150" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI150">
         <v>55.56</v>
@@ -20355,13 +20368,13 @@
     </row>
     <row r="151" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B151" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C151" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D151" t="s">
         <v>199</v>
@@ -20442,7 +20455,7 @@
         <v>233.8</v>
       </c>
       <c r="AH151" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI151">
         <v>55.56</v>
@@ -20492,13 +20505,13 @@
     </row>
     <row r="152" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B152" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C152" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D152" t="s">
         <v>200</v>
@@ -20579,7 +20592,7 @@
         <v>240.8</v>
       </c>
       <c r="AH152" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI152">
         <v>55.56</v>
@@ -20629,13 +20642,13 @@
     </row>
     <row r="153" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C153" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D153" t="s">
         <v>201</v>
@@ -20716,7 +20729,7 @@
         <v>254.9</v>
       </c>
       <c r="AH153" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI153">
         <v>55.56</v>
@@ -20766,13 +20779,13 @@
     </row>
     <row r="154" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B154" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C154" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D154" t="s">
         <v>202</v>
@@ -20853,7 +20866,7 @@
         <v>268.7</v>
       </c>
       <c r="AH154" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI154">
         <v>55.56</v>
@@ -20903,13 +20916,13 @@
     </row>
     <row r="155" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C155" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D155" t="s">
         <v>203</v>
@@ -20990,7 +21003,7 @@
         <v>210.9</v>
       </c>
       <c r="AH155" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI155">
         <v>55.56</v>
@@ -21040,13 +21053,13 @@
     </row>
     <row r="156" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B156" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C156" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D156" t="s">
         <v>204</v>
@@ -21127,7 +21140,7 @@
         <v>214.3</v>
       </c>
       <c r="AH156" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI156">
         <v>55.56</v>
@@ -21177,13 +21190,13 @@
     </row>
     <row r="157" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B157" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C157" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D157" t="s">
         <v>205</v>
@@ -21264,7 +21277,7 @@
         <v>167.6</v>
       </c>
       <c r="AH157" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI157">
         <v>55.56</v>
@@ -21314,13 +21327,13 @@
     </row>
     <row r="158" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B158" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C158" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D158" t="s">
         <v>206</v>
@@ -21401,7 +21414,7 @@
         <v>179.2</v>
       </c>
       <c r="AH158" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI158">
         <v>55.56</v>
@@ -21451,13 +21464,13 @@
     </row>
     <row r="159" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B159" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C159" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D159" t="s">
         <v>207</v>
@@ -21538,7 +21551,7 @@
         <v>182.4</v>
       </c>
       <c r="AH159" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI159">
         <v>55.56</v>
@@ -21588,13 +21601,13 @@
     </row>
     <row r="160" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C160" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D160" t="s">
         <v>208</v>
@@ -21675,7 +21688,7 @@
         <v>191.4</v>
       </c>
       <c r="AH160" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI160">
         <v>55.56</v>
@@ -21725,13 +21738,13 @@
     </row>
     <row r="161" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B161" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D161" t="s">
         <v>209</v>
@@ -21812,7 +21825,7 @@
         <v>192.7</v>
       </c>
       <c r="AH161" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI161">
         <v>55.56</v>
@@ -21862,13 +21875,13 @@
     </row>
     <row r="162" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B162" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C162" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D162" t="s">
         <v>210</v>
@@ -21949,7 +21962,7 @@
         <v>250.7</v>
       </c>
       <c r="AH162" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI162">
         <v>55.56</v>
@@ -21999,13 +22012,13 @@
     </row>
     <row r="163" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B163" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C163" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D163" t="s">
         <v>211</v>
@@ -22086,7 +22099,7 @@
         <v>267.39999999999998</v>
       </c>
       <c r="AH163" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI163">
         <v>55.56</v>
@@ -22136,13 +22149,13 @@
     </row>
     <row r="164" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C164" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D164" t="s">
         <v>212</v>
@@ -22223,7 +22236,7 @@
         <v>272.2</v>
       </c>
       <c r="AH164" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI164">
         <v>55.56</v>
@@ -22273,13 +22286,13 @@
     </row>
     <row r="165" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B165" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C165" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D165" t="s">
         <v>213</v>
@@ -22360,7 +22373,7 @@
         <v>252.2</v>
       </c>
       <c r="AH165" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI165">
         <v>55.56</v>
@@ -22410,13 +22423,13 @@
     </row>
     <row r="166" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B166" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C166" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D166" t="s">
         <v>214</v>
@@ -22497,7 +22510,7 @@
         <v>248.8</v>
       </c>
       <c r="AH166" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI166">
         <v>55.56</v>
@@ -22547,13 +22560,13 @@
     </row>
     <row r="167" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B167" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C167" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D167" t="s">
         <v>215</v>
@@ -22634,7 +22647,7 @@
         <v>230.4</v>
       </c>
       <c r="AH167" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI167">
         <v>55.56</v>
@@ -22684,13 +22697,13 @@
     </row>
     <row r="168" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B168" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C168" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D168" t="s">
         <v>216</v>
@@ -22771,7 +22784,7 @@
         <v>227.6</v>
       </c>
       <c r="AH168" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI168">
         <v>55.56</v>
@@ -22821,13 +22834,13 @@
     </row>
     <row r="169" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B169" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C169" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D169" t="s">
         <v>217</v>
@@ -22908,7 +22921,7 @@
         <v>222.2</v>
       </c>
       <c r="AH169" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI169">
         <v>55.56</v>
@@ -22958,13 +22971,13 @@
     </row>
     <row r="170" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B170" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C170" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D170" t="s">
         <v>218</v>
@@ -23045,7 +23058,7 @@
         <v>219.7</v>
       </c>
       <c r="AH170" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI170">
         <v>58.33</v>
@@ -23095,13 +23108,13 @@
     </row>
     <row r="171" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B171" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C171" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D171" t="s">
         <v>219</v>
@@ -23182,7 +23195,7 @@
         <v>210.2</v>
       </c>
       <c r="AH171" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI171">
         <v>58.33</v>
@@ -23232,13 +23245,13 @@
     </row>
     <row r="172" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B172" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C172" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D172" t="s">
         <v>220</v>
@@ -23319,7 +23332,7 @@
         <v>212.9</v>
       </c>
       <c r="AH172" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI172">
         <v>58.33</v>
@@ -23369,13 +23382,13 @@
     </row>
     <row r="173" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B173" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C173" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D173" t="s">
         <v>221</v>
@@ -23456,7 +23469,7 @@
         <v>207.3</v>
       </c>
       <c r="AH173" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI173">
         <v>58.33</v>
@@ -23506,13 +23519,13 @@
     </row>
     <row r="174" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B174" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C174" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D174" t="s">
         <v>222</v>
@@ -23593,7 +23606,7 @@
         <v>214.2</v>
       </c>
       <c r="AH174" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI174">
         <v>58.33</v>
@@ -23643,13 +23656,13 @@
     </row>
     <row r="175" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B175" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C175" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D175" t="s">
         <v>223</v>
@@ -23730,7 +23743,7 @@
         <v>216.8</v>
       </c>
       <c r="AH175" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI175">
         <v>58.33</v>
@@ -23780,13 +23793,13 @@
     </row>
     <row r="176" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B176" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D176" t="s">
         <v>224</v>
@@ -23867,7 +23880,7 @@
         <v>220.3</v>
       </c>
       <c r="AH176" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI176">
         <v>58.33</v>
@@ -23917,13 +23930,13 @@
     </row>
     <row r="177" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B177" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C177" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D177" t="s">
         <v>225</v>
@@ -24004,7 +24017,7 @@
         <v>216.2</v>
       </c>
       <c r="AH177" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI177">
         <v>58.33</v>
@@ -24054,13 +24067,13 @@
     </row>
     <row r="178" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B178" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C178" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D178" t="s">
         <v>226</v>
@@ -24141,7 +24154,7 @@
         <v>225.6</v>
       </c>
       <c r="AH178" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI178">
         <v>58.33</v>
@@ -24191,13 +24204,13 @@
     </row>
     <row r="179" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B179" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C179" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D179" t="s">
         <v>227</v>
@@ -24278,7 +24291,7 @@
         <v>217.4</v>
       </c>
       <c r="AH179" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI179">
         <v>58.33</v>
@@ -24328,13 +24341,13 @@
     </row>
     <row r="180" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B180" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D180" t="s">
         <v>228</v>
@@ -24415,7 +24428,7 @@
         <v>217.9</v>
       </c>
       <c r="AH180" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI180">
         <v>58.33</v>
@@ -24465,13 +24478,13 @@
     </row>
     <row r="181" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B181" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C181" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D181" t="s">
         <v>229</v>
@@ -24552,7 +24565,7 @@
         <v>214.9</v>
       </c>
       <c r="AH181" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI181">
         <v>58.33</v>
@@ -24602,13 +24615,13 @@
     </row>
     <row r="182" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B182" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C182" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D182" t="s">
         <v>230</v>
@@ -24689,7 +24702,7 @@
         <v>213.6</v>
       </c>
       <c r="AH182" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI182">
         <v>58.33</v>
@@ -24739,13 +24752,13 @@
     </row>
     <row r="183" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B183" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C183" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D183" t="s">
         <v>231</v>
@@ -24826,7 +24839,7 @@
         <v>197.7</v>
       </c>
       <c r="AH183" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI183">
         <v>58.33</v>
@@ -24876,13 +24889,13 @@
     </row>
     <row r="184" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C184" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D184" t="s">
         <v>232</v>
@@ -24963,7 +24976,7 @@
         <v>194.5</v>
       </c>
       <c r="AH184" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI184">
         <v>58.33</v>
@@ -25013,13 +25026,13 @@
     </row>
     <row r="185" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C185" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D185" t="s">
         <v>233</v>
@@ -25100,7 +25113,7 @@
         <v>193.5</v>
       </c>
       <c r="AH185" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI185">
         <v>58.33</v>
@@ -25150,13 +25163,13 @@
     </row>
     <row r="186" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C186" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D186" t="s">
         <v>234</v>
@@ -25237,7 +25250,7 @@
         <v>192.7</v>
       </c>
       <c r="AH186" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI186">
         <v>58.33</v>
@@ -25287,13 +25300,13 @@
     </row>
     <row r="187" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D187" t="s">
         <v>235</v>
@@ -25374,7 +25387,7 @@
         <v>191.5</v>
       </c>
       <c r="AH187" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI187">
         <v>58.33</v>
@@ -25424,13 +25437,13 @@
     </row>
     <row r="188" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B188" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C188" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D188" t="s">
         <v>236</v>
@@ -25511,7 +25524,7 @@
         <v>194.8</v>
       </c>
       <c r="AH188" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI188">
         <v>48.15</v>
@@ -25561,13 +25574,13 @@
     </row>
     <row r="189" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B189" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C189" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D189" t="s">
         <v>237</v>
@@ -25648,7 +25661,7 @@
         <v>189.4</v>
       </c>
       <c r="AH189" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI189">
         <v>48.15</v>
@@ -25698,13 +25711,13 @@
     </row>
     <row r="190" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B190" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C190" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D190" t="s">
         <v>238</v>
@@ -25785,7 +25798,7 @@
         <v>192.4</v>
       </c>
       <c r="AH190" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI190">
         <v>48.15</v>
@@ -25835,13 +25848,13 @@
     </row>
     <row r="191" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B191" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C191" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D191" t="s">
         <v>239</v>
@@ -25922,7 +25935,7 @@
         <v>185.2</v>
       </c>
       <c r="AH191" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI191">
         <v>48.15</v>
@@ -25972,13 +25985,13 @@
     </row>
     <row r="192" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B192" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C192" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D192" t="s">
         <v>240</v>
@@ -26059,7 +26072,7 @@
         <v>177.1</v>
       </c>
       <c r="AH192" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI192">
         <v>48.15</v>
@@ -26109,13 +26122,13 @@
     </row>
     <row r="193" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B193" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C193" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D193" t="s">
         <v>241</v>
@@ -26196,7 +26209,7 @@
         <v>179.6</v>
       </c>
       <c r="AH193" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI193">
         <v>48.15</v>
@@ -26246,13 +26259,13 @@
     </row>
     <row r="194" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B194" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C194" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D194" t="s">
         <v>242</v>
@@ -26333,7 +26346,7 @@
         <v>182.5</v>
       </c>
       <c r="AH194" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI194">
         <v>48.15</v>
@@ -26383,13 +26396,13 @@
     </row>
     <row r="195" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B195" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C195" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D195" t="s">
         <v>243</v>
@@ -26470,7 +26483,7 @@
         <v>182.5</v>
       </c>
       <c r="AH195" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI195">
         <v>48.15</v>
@@ -26520,13 +26533,13 @@
     </row>
     <row r="196" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B196" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C196" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D196" t="s">
         <v>244</v>
@@ -26607,7 +26620,7 @@
         <v>181.4</v>
       </c>
       <c r="AH196" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI196">
         <v>48.15</v>
@@ -26657,13 +26670,13 @@
     </row>
     <row r="197" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B197" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C197" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D197" t="s">
         <v>245</v>
@@ -26744,7 +26757,7 @@
         <v>173</v>
       </c>
       <c r="AH197" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI197">
         <v>48.15</v>
@@ -26794,13 +26807,13 @@
     </row>
     <row r="198" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B198" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C198" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D198" t="s">
         <v>246</v>
@@ -26881,7 +26894,7 @@
         <v>169.9</v>
       </c>
       <c r="AH198" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI198">
         <v>48.15</v>
@@ -26931,13 +26944,13 @@
     </row>
     <row r="199" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B199" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C199" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D199" t="s">
         <v>247</v>
@@ -27018,7 +27031,7 @@
         <v>155.80000000000001</v>
       </c>
       <c r="AH199" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI199">
         <v>48.15</v>
@@ -27068,13 +27081,13 @@
     </row>
     <row r="200" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B200" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C200" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D200" t="s">
         <v>248</v>
@@ -27155,7 +27168,7 @@
         <v>149.1</v>
       </c>
       <c r="AH200" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI200">
         <v>50.93</v>
@@ -27205,13 +27218,13 @@
     </row>
     <row r="201" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B201" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C201" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D201" t="s">
         <v>249</v>
@@ -27292,7 +27305,7 @@
         <v>133.4</v>
       </c>
       <c r="AH201" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI201">
         <v>50.93</v>
@@ -27342,13 +27355,13 @@
     </row>
     <row r="202" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B202" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C202" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D202" t="s">
         <v>250</v>
@@ -27429,7 +27442,7 @@
         <v>129.19999999999999</v>
       </c>
       <c r="AH202" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI202">
         <v>50.93</v>
@@ -27479,13 +27492,13 @@
     </row>
     <row r="203" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B203" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C203" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D203" t="s">
         <v>251</v>
@@ -27566,7 +27579,7 @@
         <v>117.9</v>
       </c>
       <c r="AH203" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI203">
         <v>50.93</v>
@@ -27616,13 +27629,13 @@
     </row>
     <row r="204" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B204" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C204" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D204" t="s">
         <v>252</v>
@@ -27703,7 +27716,7 @@
         <v>112.9</v>
       </c>
       <c r="AH204" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI204">
         <v>50.93</v>
@@ -27753,13 +27766,13 @@
     </row>
     <row r="205" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B205" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C205" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D205" t="s">
         <v>253</v>
@@ -27840,7 +27853,7 @@
         <v>105.9</v>
       </c>
       <c r="AH205" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI205">
         <v>50.93</v>
@@ -27890,13 +27903,13 @@
     </row>
     <row r="206" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B206" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C206" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D206" t="s">
         <v>254</v>
@@ -27977,7 +27990,7 @@
         <v>101.1</v>
       </c>
       <c r="AH206" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI206">
         <v>50.93</v>
@@ -28027,13 +28040,13 @@
     </row>
     <row r="207" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B207" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C207" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D207" t="s">
         <v>255</v>
@@ -28114,7 +28127,7 @@
         <v>92.5</v>
       </c>
       <c r="AH207" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI207">
         <v>50.93</v>
@@ -28164,13 +28177,13 @@
     </row>
     <row r="208" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B208" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C208" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D208" t="s">
         <v>256</v>
@@ -28251,7 +28264,7 @@
         <v>91.8</v>
       </c>
       <c r="AH208" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI208">
         <v>50.93</v>
@@ -28301,13 +28314,13 @@
     </row>
     <row r="209" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B209" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C209" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D209" t="s">
         <v>257</v>
@@ -28388,7 +28401,7 @@
         <v>91.4</v>
       </c>
       <c r="AH209" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI209">
         <v>54.63</v>
@@ -28438,13 +28451,13 @@
     </row>
     <row r="210" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B210" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C210" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D210" t="s">
         <v>258</v>
@@ -28525,7 +28538,7 @@
         <v>95.7</v>
       </c>
       <c r="AH210" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI210">
         <v>54.63</v>
@@ -28575,13 +28588,13 @@
     </row>
     <row r="211" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B211" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C211" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D211" t="s">
         <v>259</v>
@@ -28662,7 +28675,7 @@
         <v>96.4</v>
       </c>
       <c r="AH211" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI211">
         <v>54.63</v>
@@ -28712,13 +28725,13 @@
     </row>
     <row r="212" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B212" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C212" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D212" t="s">
         <v>260</v>
@@ -28799,7 +28812,7 @@
         <v>95.2</v>
       </c>
       <c r="AH212" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI212">
         <v>54.63</v>
@@ -28849,13 +28862,13 @@
     </row>
     <row r="213" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B213" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C213" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D213" t="s">
         <v>261</v>
@@ -28936,7 +28949,7 @@
         <v>92.8</v>
       </c>
       <c r="AH213" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI213">
         <v>54.63</v>
@@ -28986,13 +28999,13 @@
     </row>
     <row r="214" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B214" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C214" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D214" t="s">
         <v>262</v>
@@ -29073,7 +29086,7 @@
         <v>89.3</v>
       </c>
       <c r="AH214" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI214">
         <v>54.63</v>
@@ -29123,13 +29136,13 @@
     </row>
     <row r="215" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B215" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C215" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D215" t="s">
         <v>263</v>
@@ -29210,7 +29223,7 @@
         <v>82.9</v>
       </c>
       <c r="AH215" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI215">
         <v>54.63</v>
@@ -29260,13 +29273,13 @@
     </row>
     <row r="216" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B216" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C216" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D216" t="s">
         <v>264</v>
@@ -29347,7 +29360,7 @@
         <v>76.8</v>
       </c>
       <c r="AH216" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI216">
         <v>54.63</v>
@@ -29397,13 +29410,13 @@
     </row>
     <row r="217" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B217" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C217" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D217" t="s">
         <v>265</v>
@@ -29484,7 +29497,7 @@
         <v>74</v>
       </c>
       <c r="AH217" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI217">
         <v>54.63</v>
@@ -29534,13 +29547,13 @@
     </row>
     <row r="218" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B218" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C218" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D218" t="s">
         <v>266</v>
@@ -29621,7 +29634,7 @@
         <v>69.7</v>
       </c>
       <c r="AH218" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI218">
         <v>54.63</v>
@@ -29671,13 +29684,13 @@
     </row>
     <row r="219" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B219" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C219" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D219" t="s">
         <v>267</v>
@@ -29758,7 +29771,7 @@
         <v>66.8</v>
       </c>
       <c r="AH219" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI219">
         <v>54.63</v>
@@ -29808,13 +29821,13 @@
     </row>
     <row r="220" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B220" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C220" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D220" t="s">
         <v>268</v>
@@ -29895,7 +29908,7 @@
         <v>65.7</v>
       </c>
       <c r="AH220" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI220">
         <v>54.63</v>
@@ -29945,13 +29958,13 @@
     </row>
     <row r="221" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B221" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C221" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D221" t="s">
         <v>269</v>
@@ -30032,7 +30045,7 @@
         <v>65.3</v>
       </c>
       <c r="AH221" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI221">
         <v>54.63</v>
@@ -30082,13 +30095,13 @@
     </row>
     <row r="222" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B222" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C222" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D222" t="s">
         <v>270</v>
@@ -30169,7 +30182,7 @@
         <v>65.2</v>
       </c>
       <c r="AH222" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI222">
         <v>54.63</v>
@@ -30219,13 +30232,13 @@
     </row>
     <row r="223" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B223" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C223" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D223" t="s">
         <v>271</v>
@@ -30306,7 +30319,7 @@
         <v>66.3</v>
       </c>
       <c r="AH223" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI223">
         <v>54.63</v>
@@ -30356,13 +30369,13 @@
     </row>
     <row r="224" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B224" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C224" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D224" t="s">
         <v>272</v>
@@ -30443,7 +30456,7 @@
         <v>66.599999999999994</v>
       </c>
       <c r="AH224" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI224">
         <v>54.63</v>
@@ -30493,13 +30506,13 @@
     </row>
     <row r="225" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B225" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C225" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D225" t="s">
         <v>273</v>
@@ -30580,7 +30593,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="AH225" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI225">
         <v>54.63</v>
@@ -30630,13 +30643,13 @@
     </row>
     <row r="226" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B226" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C226" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D226" t="s">
         <v>274</v>
@@ -30717,7 +30730,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="AH226" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI226">
         <v>54.63</v>
@@ -30767,13 +30780,13 @@
     </row>
     <row r="227" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B227" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C227" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D227" t="s">
         <v>275</v>
@@ -30854,7 +30867,7 @@
         <v>67.599999999999994</v>
       </c>
       <c r="AH227" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI227">
         <v>54.63</v>
@@ -30904,13 +30917,13 @@
     </row>
     <row r="228" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B228" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C228" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D228" t="s">
         <v>276</v>
@@ -30991,7 +31004,7 @@
         <v>66.7</v>
       </c>
       <c r="AH228" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI228">
         <v>54.63</v>
@@ -31041,13 +31054,13 @@
     </row>
     <row r="229" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B229" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C229" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D229" t="s">
         <v>277</v>
@@ -31128,7 +31141,7 @@
         <v>67.2</v>
       </c>
       <c r="AH229" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI229">
         <v>54.63</v>
@@ -31178,13 +31191,13 @@
     </row>
     <row r="230" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B230" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C230" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D230" t="s">
         <v>278</v>
@@ -31265,7 +31278,7 @@
         <v>65.5</v>
       </c>
       <c r="AH230" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI230">
         <v>54.63</v>
@@ -31315,13 +31328,13 @@
     </row>
     <row r="231" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B231" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C231" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D231" t="s">
         <v>279</v>
@@ -31402,7 +31415,7 @@
         <v>64.099999999999994</v>
       </c>
       <c r="AH231" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI231">
         <v>54.63</v>
@@ -31452,13 +31465,13 @@
     </row>
     <row r="232" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B232" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D232" t="s">
         <v>280</v>
@@ -31539,7 +31552,7 @@
         <v>62.7</v>
       </c>
       <c r="AH232" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI232">
         <v>54.63</v>
@@ -31589,13 +31602,13 @@
     </row>
     <row r="233" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B233" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C233" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D233" t="s">
         <v>281</v>
@@ -31676,7 +31689,7 @@
         <v>61.6</v>
       </c>
       <c r="AH233" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI233">
         <v>54.63</v>
@@ -31726,13 +31739,13 @@
     </row>
     <row r="234" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B234" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C234" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D234" t="s">
         <v>282</v>
@@ -31813,7 +31826,7 @@
         <v>60.9</v>
       </c>
       <c r="AH234" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI234">
         <v>54.63</v>
@@ -31863,13 +31876,13 @@
     </row>
     <row r="235" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B235" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C235" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D235" t="s">
         <v>283</v>
@@ -31950,7 +31963,7 @@
         <v>60.6</v>
       </c>
       <c r="AH235" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI235">
         <v>54.63</v>
@@ -32000,13 +32013,13 @@
     </row>
     <row r="236" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B236" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C236" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D236" t="s">
         <v>284</v>
@@ -32087,7 +32100,7 @@
         <v>59.2</v>
       </c>
       <c r="AH236" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI236">
         <v>54.63</v>
@@ -32137,13 +32150,13 @@
     </row>
     <row r="237" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B237" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C237" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D237" t="s">
         <v>285</v>
@@ -32224,7 +32237,7 @@
         <v>59.3</v>
       </c>
       <c r="AH237" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI237">
         <v>47.22</v>
@@ -32274,13 +32287,13 @@
     </row>
     <row r="238" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B238" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C238" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D238" t="s">
         <v>286</v>
@@ -32361,7 +32374,7 @@
         <v>58.9</v>
       </c>
       <c r="AH238" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI238">
         <v>47.22</v>
@@ -32411,13 +32424,13 @@
     </row>
     <row r="239" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B239" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C239" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D239" t="s">
         <v>287</v>
@@ -32498,7 +32511,7 @@
         <v>59.3</v>
       </c>
       <c r="AH239" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI239">
         <v>47.22</v>
@@ -32548,13 +32561,13 @@
     </row>
     <row r="240" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B240" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C240" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D240" t="s">
         <v>288</v>
@@ -32635,7 +32648,7 @@
         <v>60.1</v>
       </c>
       <c r="AH240" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI240">
         <v>47.22</v>
@@ -32685,13 +32698,13 @@
     </row>
     <row r="241" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B241" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C241" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D241" t="s">
         <v>289</v>
@@ -32772,7 +32785,7 @@
         <v>58.5</v>
       </c>
       <c r="AH241" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI241">
         <v>47.22</v>
@@ -32822,13 +32835,13 @@
     </row>
     <row r="242" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B242" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C242" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D242" t="s">
         <v>290</v>
@@ -32909,7 +32922,7 @@
         <v>58.7</v>
       </c>
       <c r="AH242" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI242">
         <v>47.22</v>
@@ -32959,13 +32972,13 @@
     </row>
     <row r="243" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B243" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C243" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D243" t="s">
         <v>291</v>
@@ -33046,7 +33059,7 @@
         <v>59.1</v>
       </c>
       <c r="AH243" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI243">
         <v>47.22</v>
@@ -33096,13 +33109,13 @@
     </row>
     <row r="244" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B244" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C244" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D244" t="s">
         <v>292</v>
@@ -33183,7 +33196,7 @@
         <v>58.2</v>
       </c>
       <c r="AH244" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI244">
         <v>47.22</v>
@@ -33233,13 +33246,13 @@
     </row>
     <row r="245" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B245" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C245" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D245" t="s">
         <v>293</v>
@@ -33320,7 +33333,7 @@
         <v>57.9</v>
       </c>
       <c r="AH245" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI245">
         <v>47.22</v>
@@ -33370,13 +33383,13 @@
     </row>
     <row r="246" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B246" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C246" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D246" t="s">
         <v>294</v>
@@ -33457,7 +33470,7 @@
         <v>57.2</v>
       </c>
       <c r="AH246" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI246">
         <v>47.22</v>
@@ -33507,13 +33520,13 @@
     </row>
     <row r="247" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B247" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C247" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D247" t="s">
         <v>295</v>
@@ -33594,7 +33607,7 @@
         <v>56.8</v>
       </c>
       <c r="AH247" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI247">
         <v>47.22</v>
@@ -33644,13 +33657,13 @@
     </row>
     <row r="248" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B248" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C248" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D248" t="s">
         <v>296</v>
@@ -33731,7 +33744,7 @@
         <v>57.4</v>
       </c>
       <c r="AH248" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI248">
         <v>47.22</v>
@@ -33781,13 +33794,13 @@
     </row>
     <row r="249" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B249" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C249" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D249" t="s">
         <v>297</v>
@@ -33868,7 +33881,7 @@
         <v>56.3</v>
       </c>
       <c r="AH249" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI249">
         <v>47.22</v>
@@ -33918,13 +33931,13 @@
     </row>
     <row r="250" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B250" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C250" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D250" t="s">
         <v>298</v>
@@ -34005,7 +34018,7 @@
         <v>55.9</v>
       </c>
       <c r="AH250" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI250">
         <v>47.22</v>
@@ -34055,13 +34068,13 @@
     </row>
     <row r="251" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B251" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C251" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D251" t="s">
         <v>299</v>
@@ -34142,7 +34155,7 @@
         <v>54.8</v>
       </c>
       <c r="AH251" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI251">
         <v>47.22</v>
@@ -34192,13 +34205,13 @@
     </row>
     <row r="252" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B252" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C252" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D252" t="s">
         <v>300</v>
@@ -34279,7 +34292,7 @@
         <v>53.9</v>
       </c>
       <c r="AH252" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI252">
         <v>47.22</v>
@@ -34329,13 +34342,13 @@
     </row>
     <row r="253" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B253" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C253" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D253" t="s">
         <v>301</v>
@@ -34416,7 +34429,7 @@
         <v>53.1</v>
       </c>
       <c r="AH253" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI253">
         <v>47.22</v>
@@ -34466,13 +34479,13 @@
     </row>
     <row r="254" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B254" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C254" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D254" t="s">
         <v>302</v>
@@ -34553,7 +34566,7 @@
         <v>50.8</v>
       </c>
       <c r="AH254" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI254">
         <v>47.22</v>
@@ -34603,13 +34616,13 @@
     </row>
     <row r="255" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B255" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C255" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D255" t="s">
         <v>303</v>
@@ -34690,7 +34703,7 @@
         <v>49.5</v>
       </c>
       <c r="AH255" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI255">
         <v>47.22</v>
@@ -34740,13 +34753,13 @@
     </row>
     <row r="256" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B256" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C256" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D256" t="s">
         <v>304</v>
@@ -34827,7 +34840,7 @@
         <v>47.2</v>
       </c>
       <c r="AH256" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI256">
         <v>47.22</v>
@@ -34877,13 +34890,13 @@
     </row>
     <row r="257" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B257" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C257" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D257" t="s">
         <v>305</v>
@@ -34964,7 +34977,7 @@
         <v>45.1</v>
       </c>
       <c r="AH257" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI257">
         <v>47.22</v>
@@ -35014,13 +35027,13 @@
     </row>
     <row r="258" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B258" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C258" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D258" t="s">
         <v>306</v>
@@ -35101,7 +35114,7 @@
         <v>43.5</v>
       </c>
       <c r="AH258" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI258">
         <v>47.22</v>
@@ -35151,13 +35164,13 @@
     </row>
     <row r="259" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B259" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C259" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D259" t="s">
         <v>307</v>
@@ -35238,7 +35251,7 @@
         <v>41.5</v>
       </c>
       <c r="AH259" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI259">
         <v>55.56</v>
@@ -35288,13 +35301,13 @@
     </row>
     <row r="260" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B260" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C260" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D260" t="s">
         <v>308</v>
@@ -35375,7 +35388,7 @@
         <v>38.5</v>
       </c>
       <c r="AH260" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI260">
         <v>55.56</v>
@@ -35425,13 +35438,13 @@
     </row>
     <row r="261" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B261" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C261" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D261" t="s">
         <v>309</v>
@@ -35512,7 +35525,7 @@
         <v>35.5</v>
       </c>
       <c r="AH261" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI261">
         <v>55.56</v>
@@ -35562,13 +35575,13 @@
     </row>
     <row r="262" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B262" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C262" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D262" t="s">
         <v>310</v>
@@ -35649,7 +35662,7 @@
         <v>31.6</v>
       </c>
       <c r="AH262" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI262">
         <v>55.56</v>
@@ -35699,13 +35712,13 @@
     </row>
     <row r="263" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B263" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C263" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D263" t="s">
         <v>311</v>
@@ -35786,7 +35799,7 @@
         <v>28.7</v>
       </c>
       <c r="AH263" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI263">
         <v>55.56</v>
@@ -35836,13 +35849,13 @@
     </row>
     <row r="264" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B264" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C264" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D264" t="s">
         <v>312</v>
@@ -35923,7 +35936,7 @@
         <v>26.4</v>
       </c>
       <c r="AH264" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI264">
         <v>55.56</v>
@@ -35973,13 +35986,13 @@
     </row>
     <row r="265" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B265" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C265" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D265" t="s">
         <v>313</v>
@@ -36060,7 +36073,7 @@
         <v>25.2</v>
       </c>
       <c r="AH265" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI265">
         <v>55.56</v>
@@ -36110,13 +36123,13 @@
     </row>
     <row r="266" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B266" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C266" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D266" t="s">
         <v>314</v>
@@ -36197,7 +36210,7 @@
         <v>23.3</v>
       </c>
       <c r="AH266" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI266">
         <v>55.56</v>
@@ -36247,13 +36260,13 @@
     </row>
     <row r="267" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C267" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D267" t="s">
         <v>315</v>
@@ -36334,7 +36347,7 @@
         <v>21.8</v>
       </c>
       <c r="AH267" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI267">
         <v>50</v>
@@ -36384,13 +36397,13 @@
     </row>
     <row r="268" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B268" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C268" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D268" t="s">
         <v>316</v>
@@ -36471,7 +36484,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="AH268" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI268">
         <v>50</v>
@@ -36521,13 +36534,13 @@
     </row>
     <row r="269" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B269" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C269" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D269" t="s">
         <v>317</v>
@@ -36608,7 +36621,7 @@
         <v>18.8</v>
       </c>
       <c r="AH269" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI269">
         <v>50</v>
@@ -36658,13 +36671,13 @@
     </row>
     <row r="270" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B270" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C270" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D270" t="s">
         <v>318</v>
@@ -36745,7 +36758,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="AH270" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI270">
         <v>50</v>
@@ -36795,13 +36808,13 @@
     </row>
     <row r="271" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B271" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C271" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D271" t="s">
         <v>319</v>
@@ -36882,7 +36895,7 @@
         <v>16.5</v>
       </c>
       <c r="AH271" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI271">
         <v>50</v>
@@ -36932,13 +36945,13 @@
     </row>
     <row r="272" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B272" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C272" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D272" t="s">
         <v>320</v>
@@ -37019,7 +37032,7 @@
         <v>15.5</v>
       </c>
       <c r="AH272" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI272">
         <v>50</v>
@@ -37069,13 +37082,13 @@
     </row>
     <row r="273" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B273" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C273" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D273" t="s">
         <v>321</v>
@@ -37156,7 +37169,7 @@
         <v>14.8</v>
       </c>
       <c r="AH273" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI273">
         <v>50</v>
@@ -37206,13 +37219,13 @@
     </row>
     <row r="274" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B274" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C274" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D274" t="s">
         <v>322</v>
@@ -37293,7 +37306,7 @@
         <v>13.6</v>
       </c>
       <c r="AH274" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI274">
         <v>50</v>
@@ -37343,13 +37356,13 @@
     </row>
     <row r="275" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B275" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C275" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D275" t="s">
         <v>323</v>
@@ -37430,7 +37443,7 @@
         <v>12.5</v>
       </c>
       <c r="AH275" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI275">
         <v>50</v>
@@ -37480,13 +37493,13 @@
     </row>
     <row r="276" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B276" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C276" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D276" t="s">
         <v>324</v>
@@ -37567,7 +37580,7 @@
         <v>11.6</v>
       </c>
       <c r="AH276" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI276">
         <v>66.67</v>
@@ -37617,13 +37630,13 @@
     </row>
     <row r="277" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B277" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C277" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D277" t="s">
         <v>325</v>
@@ -37704,7 +37717,7 @@
         <v>10.8</v>
       </c>
       <c r="AH277" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI277">
         <v>66.67</v>
@@ -37754,13 +37767,13 @@
     </row>
     <row r="278" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B278" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C278" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D278" t="s">
         <v>326</v>
@@ -37841,7 +37854,7 @@
         <v>10</v>
       </c>
       <c r="AH278" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI278">
         <v>66.67</v>
@@ -37891,13 +37904,13 @@
     </row>
     <row r="279" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B279" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C279" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D279" t="s">
         <v>327</v>
@@ -37978,7 +37991,7 @@
         <v>9.6</v>
       </c>
       <c r="AH279" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI279">
         <v>66.67</v>
@@ -38028,13 +38041,13 @@
     </row>
     <row r="280" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B280" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C280" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D280" t="s">
         <v>328</v>
@@ -38115,7 +38128,7 @@
         <v>9</v>
       </c>
       <c r="AH280" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI280">
         <v>66.67</v>
@@ -38165,13 +38178,13 @@
     </row>
     <row r="281" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B281" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C281" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D281" t="s">
         <v>329</v>
@@ -38252,7 +38265,7 @@
         <v>8.5</v>
       </c>
       <c r="AH281" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI281">
         <v>66.67</v>
@@ -38302,13 +38315,13 @@
     </row>
     <row r="282" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B282" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C282" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D282" t="s">
         <v>330</v>
@@ -38389,7 +38402,7 @@
         <v>8.1</v>
       </c>
       <c r="AH282" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI282">
         <v>66.67</v>
@@ -38439,13 +38452,13 @@
     </row>
     <row r="283" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B283" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C283" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D283" t="s">
         <v>331</v>
@@ -38526,7 +38539,7 @@
         <v>7.7</v>
       </c>
       <c r="AH283" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI283">
         <v>66.67</v>
@@ -38576,13 +38589,13 @@
     </row>
     <row r="284" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B284" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C284" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D284" t="s">
         <v>332</v>
@@ -38663,7 +38676,7 @@
         <v>7.4</v>
       </c>
       <c r="AH284" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI284">
         <v>66.67</v>
@@ -38713,13 +38726,13 @@
     </row>
     <row r="285" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B285" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C285" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D285" t="s">
         <v>333</v>
@@ -38800,7 +38813,7 @@
         <v>7.2</v>
       </c>
       <c r="AH285" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI285">
         <v>66.67</v>
@@ -38850,13 +38863,13 @@
     </row>
     <row r="286" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B286" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C286" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D286" t="s">
         <v>334</v>
@@ -38937,7 +38950,7 @@
         <v>7</v>
       </c>
       <c r="AH286" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI286">
         <v>66.67</v>
@@ -38987,13 +39000,13 @@
     </row>
     <row r="287" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B287" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C287" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D287" t="s">
         <v>335</v>
@@ -39074,7 +39087,7 @@
         <v>6.8</v>
       </c>
       <c r="AH287" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI287">
         <v>66.67</v>
@@ -39124,13 +39137,13 @@
     </row>
     <row r="288" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B288" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C288" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D288" t="s">
         <v>336</v>
@@ -39211,7 +39224,7 @@
         <v>6.7</v>
       </c>
       <c r="AH288" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI288">
         <v>66.67</v>
@@ -39261,13 +39274,13 @@
     </row>
     <row r="289" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B289" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C289" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D289" t="s">
         <v>337</v>
@@ -39348,7 +39361,7 @@
         <v>6.5</v>
       </c>
       <c r="AH289" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI289">
         <v>66.67</v>
@@ -39398,13 +39411,13 @@
     </row>
     <row r="290" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B290" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C290" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D290" t="s">
         <v>338</v>
@@ -39485,7 +39498,7 @@
         <v>6.4</v>
       </c>
       <c r="AH290" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI290">
         <v>76.849999999999994</v>
@@ -39535,13 +39548,13 @@
     </row>
     <row r="291" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B291" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C291" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D291" t="s">
         <v>339</v>
@@ -39622,7 +39635,7 @@
         <v>6.3</v>
       </c>
       <c r="AH291" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI291">
         <v>76.849999999999994</v>
@@ -39672,13 +39685,13 @@
     </row>
     <row r="292" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B292" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C292" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D292" t="s">
         <v>340</v>
@@ -39759,7 +39772,7 @@
         <v>6.2</v>
       </c>
       <c r="AH292" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI292">
         <v>76.849999999999994</v>
@@ -39809,13 +39822,13 @@
     </row>
     <row r="293" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B293" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C293" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D293" t="s">
         <v>341</v>
@@ -39896,7 +39909,7 @@
         <v>6.2</v>
       </c>
       <c r="AH293" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI293">
         <v>76.849999999999994</v>
@@ -39946,13 +39959,13 @@
     </row>
     <row r="294" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B294" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C294" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D294" t="s">
         <v>342</v>
@@ -40033,7 +40046,7 @@
         <v>6.2</v>
       </c>
       <c r="AH294" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI294">
         <v>79.63</v>
@@ -40083,13 +40096,13 @@
     </row>
     <row r="295" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B295" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C295" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D295" t="s">
         <v>343</v>
@@ -40170,7 +40183,7 @@
         <v>6.2</v>
       </c>
       <c r="AH295" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI295">
         <v>79.63</v>
@@ -40220,13 +40233,13 @@
     </row>
     <row r="296" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B296" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C296" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D296" t="s">
         <v>344</v>
@@ -40307,7 +40320,7 @@
         <v>6.1</v>
       </c>
       <c r="AH296" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI296">
         <v>79.63</v>
@@ -40357,13 +40370,13 @@
     </row>
     <row r="297" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B297" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C297" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D297" t="s">
         <v>345</v>
@@ -40444,7 +40457,7 @@
         <v>6.1</v>
       </c>
       <c r="AH297" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI297">
         <v>79.63</v>
@@ -40494,13 +40507,13 @@
     </row>
     <row r="298" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B298" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C298" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D298" t="s">
         <v>346</v>
@@ -40581,7 +40594,7 @@
         <v>6.2</v>
       </c>
       <c r="AH298" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI298">
         <v>79.63</v>
@@ -40631,13 +40644,13 @@
     </row>
     <row r="299" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B299" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C299" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D299" t="s">
         <v>347</v>
@@ -40718,7 +40731,7 @@
         <v>6.2</v>
       </c>
       <c r="AH299" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI299">
         <v>79.63</v>
@@ -40768,13 +40781,13 @@
     </row>
     <row r="300" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B300" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C300" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D300" t="s">
         <v>348</v>
@@ -40855,7 +40868,7 @@
         <v>6.1</v>
       </c>
       <c r="AH300" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI300">
         <v>79.63</v>
@@ -40905,13 +40918,13 @@
     </row>
     <row r="301" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B301" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C301" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D301" t="s">
         <v>349</v>
@@ -40992,7 +41005,7 @@
         <v>6.2</v>
       </c>
       <c r="AH301" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI301">
         <v>79.63</v>
@@ -41042,13 +41055,13 @@
     </row>
     <row r="302" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B302" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C302" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D302" t="s">
         <v>350</v>
@@ -41129,7 +41142,7 @@
         <v>6.2</v>
       </c>
       <c r="AH302" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI302">
         <v>79.63</v>
@@ -41179,13 +41192,13 @@
     </row>
     <row r="303" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B303" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C303" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D303" t="s">
         <v>351</v>
@@ -41266,7 +41279,7 @@
         <v>6.3</v>
       </c>
       <c r="AH303" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI303">
         <v>79.63</v>
@@ -41316,13 +41329,13 @@
     </row>
     <row r="304" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B304" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C304" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D304" t="s">
         <v>352</v>
@@ -41403,7 +41416,7 @@
         <v>6.3</v>
       </c>
       <c r="AH304" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI304">
         <v>79.63</v>
@@ -41453,13 +41466,13 @@
     </row>
     <row r="305" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B305" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C305" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D305" t="s">
         <v>353</v>
@@ -41537,7 +41550,7 @@
         <v>6.4</v>
       </c>
       <c r="AH305" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI305">
         <v>79.63</v>
@@ -41587,13 +41600,13 @@
     </row>
     <row r="306" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B306" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C306" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D306" t="s">
         <v>354</v>
@@ -41671,7 +41684,7 @@
         <v>6.6</v>
       </c>
       <c r="AH306" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI306">
         <v>79.63</v>
@@ -41721,13 +41734,13 @@
     </row>
     <row r="307" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B307" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C307" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D307" t="s">
         <v>355</v>
@@ -41805,7 +41818,7 @@
         <v>6.7</v>
       </c>
       <c r="AH307" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI307">
         <v>79.63</v>
@@ -41855,13 +41868,13 @@
     </row>
     <row r="308" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B308" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C308" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D308" t="s">
         <v>356</v>
@@ -41939,7 +41952,7 @@
         <v>6.9</v>
       </c>
       <c r="AH308" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI308">
         <v>79.63</v>
@@ -41989,13 +42002,13 @@
     </row>
     <row r="309" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B309" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C309" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D309" t="s">
         <v>357</v>
@@ -42073,7 +42086,7 @@
         <v>7.1</v>
       </c>
       <c r="AH309" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI309">
         <v>79.63</v>
@@ -42123,13 +42136,13 @@
     </row>
     <row r="310" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B310" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C310" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D310" t="s">
         <v>358</v>
@@ -42207,7 +42220,7 @@
         <v>7.3</v>
       </c>
       <c r="AH310" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ310">
         <v>60461828</v>
@@ -42254,13 +42267,13 @@
     </row>
     <row r="311" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B311" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C311" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D311" t="s">
         <v>359</v>
@@ -42338,7 +42351,7 @@
         <v>7.5</v>
       </c>
       <c r="AH311" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ311">
         <v>60461828</v>
@@ -42385,13 +42398,13 @@
     </row>
     <row r="312" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B312" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C312" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D312" t="s">
         <v>360</v>
@@ -42469,7 +42482,7 @@
         <v>7.8</v>
       </c>
       <c r="AH312" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ312">
         <v>60461828</v>
@@ -42516,13 +42529,13 @@
     </row>
     <row r="313" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B313" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C313" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D313" t="s">
         <v>361</v>
@@ -42600,7 +42613,7 @@
         <v>8.1</v>
       </c>
       <c r="AH313" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ313">
         <v>60461828</v>
@@ -42647,13 +42660,13 @@
     </row>
     <row r="314" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B314" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C314" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D314" t="s">
         <v>362</v>
@@ -42719,7 +42732,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AH314" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ314">
         <v>60461828</v>
@@ -42766,13 +42779,13 @@
     </row>
     <row r="315" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B315" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C315" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D315" t="s">
         <v>363</v>
@@ -42838,7 +42851,7 @@
         <v>8.4</v>
       </c>
       <c r="AH315" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ315">
         <v>60461828</v>
@@ -42885,13 +42898,13 @@
     </row>
     <row r="316" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B316" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C316" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D316" t="s">
         <v>364</v>
@@ -42957,7 +42970,7 @@
         <v>8.6</v>
       </c>
       <c r="AH316" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ316">
         <v>60461828</v>
@@ -43004,13 +43017,13 @@
     </row>
     <row r="317" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B317" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C317" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D317" t="s">
         <v>365</v>
@@ -43076,7 +43089,7 @@
         <v>8.9</v>
       </c>
       <c r="AH317" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ317">
         <v>60461828</v>
@@ -43123,13 +43136,13 @@
     </row>
     <row r="318" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B318" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C318" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D318" t="s">
         <v>366</v>
@@ -43210,6 +43223,98 @@
         <v>83.51</v>
       </c>
       <c r="AX318">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="319" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>370</v>
+      </c>
+      <c r="B319" t="s">
+        <v>368</v>
+      </c>
+      <c r="C319" t="s">
+        <v>371</v>
+      </c>
+      <c r="D319" t="s">
+        <v>367</v>
+      </c>
+      <c r="E319">
+        <v>1709991</v>
+      </c>
+      <c r="F319">
+        <v>21052</v>
+      </c>
+      <c r="G319">
+        <v>20779.857</v>
+      </c>
+      <c r="H319">
+        <v>59514</v>
+      </c>
+      <c r="I319">
+        <v>662</v>
+      </c>
+      <c r="J319">
+        <v>735.85699999999997</v>
+      </c>
+      <c r="K319">
+        <v>28282.157999999999</v>
+      </c>
+      <c r="L319">
+        <v>348.18700000000001</v>
+      </c>
+      <c r="M319">
+        <v>343.68599999999998</v>
+      </c>
+      <c r="N319">
+        <v>984.32399999999996</v>
+      </c>
+      <c r="O319">
+        <v>10.949</v>
+      </c>
+      <c r="P319">
+        <v>12.170999999999999</v>
+      </c>
+      <c r="AJ319">
+        <v>60461828</v>
+      </c>
+      <c r="AK319">
+        <v>205.85900000000001</v>
+      </c>
+      <c r="AL319">
+        <v>47.9</v>
+      </c>
+      <c r="AM319">
+        <v>23.021000000000001</v>
+      </c>
+      <c r="AN319">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="AO319">
+        <v>35220.084000000003</v>
+      </c>
+      <c r="AP319">
+        <v>2</v>
+      </c>
+      <c r="AQ319">
+        <v>113.151</v>
+      </c>
+      <c r="AR319">
+        <v>4.78</v>
+      </c>
+      <c r="AS319">
+        <v>19.8</v>
+      </c>
+      <c r="AT319">
+        <v>27.8</v>
+      </c>
+      <c r="AV319">
+        <v>3.18</v>
+      </c>
+      <c r="AW319">
+        <v>83.51</v>
+      </c>
+      <c r="AX319">
         <v>0.88</v>
       </c>
     </row>
